--- a/biology/Botanique/Cabomba_aquatica/Cabomba_aquatica.xlsx
+++ b/biology/Botanique/Cabomba_aquatica/Cabomba_aquatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cabomba aquatica est une plante aquatique d'origine néotropicale appartenant au genre Cabomba et à la famille des Cabombaceae. Cette espèce vivace vit dans les eaux douces stagnantes ou dans les lacs et rivières à faible courant. Elle est communément utilisée en aquariophilie comme plante d'aquarium[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cabomba aquatica est une plante aquatique d'origine néotropicale appartenant au genre Cabomba et à la famille des Cabombaceae. Cette espèce vivace vit dans les eaux douces stagnantes ou dans les lacs et rivières à faible courant. Elle est communément utilisée en aquariophilie comme plante d'aquarium.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cabomba aquatica se propage principalement de façon asexuée par fragmentation des tiges de la plante mère. Elle produit alors des racines adventives à partir de ses nœuds. Les tiges sont constituées de portions basales horizontales ainsi que de portions ascendantes qui atteignent généralement la surface pour sa floraison jaune caractéristique. Les tiges peuvent atteindre 50 cm de longueur (plusieurs mètres dans son milieu naturel).
 Cabomba aquatica présente un dimorphisme foliaire avec des feuilles laciniées le long des tiges immergées, et des feuilles flottantes entières peltées au niveau des parties apicales de la tige atteignant la surface. De fines stries rouges peuvent apparaissent sur les tiges et les pétioles.
@@ -544,9 +558,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cabomba aquatica est originaire du nord de l'Amérique du Sud : Colombie, Guyana, Suriname, Guyane, Brésil, Venezuela. Cette herbe aquatique immergée, à feuilles terminales flottantes, affectionne les marais littoraux, fossés, étangs d'eau plus ou moins stagnante, ruisseaux ou le long des berges des rivières calmes, entre 0 et 100 mètres d'altitude[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cabomba aquatica est originaire du nord de l'Amérique du Sud : Colombie, Guyana, Suriname, Guyane, Brésil, Venezuela. Cette herbe aquatique immergée, à feuilles terminales flottantes, affectionne les marais littoraux, fossés, étangs d'eau plus ou moins stagnante, ruisseaux ou le long des berges des rivières calmes, entre 0 et 100 mètres d'altitude.
 Elle se développe dans des conditions aquatiques d'eau douce ou dure avec peu de lumière. Elle prospère à un pH compris entre 6 et 7,5 et à une température de 22 à 28 °C (elle supporte un éclairage intense, des pH acides, des températures assez élevées).
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Usages et culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cabomba aquatica est bénéfique pour les lacs, les barrages et les rivières par l'oxygénation des la colonne d'eau et l'absorption du dioxyde de carbone. Elle contribue au fonctionnement global des plans d'eau. Elle sert également de la nourriture à la faune et contribue ainsi au maintien des écosystèmes aquatiques.
 Cabomba aquatica est également important dans l'écosystème aquatique : elle joue le rôle d'accumulatrice de métaux lourds et présente un grand potentiel pour la phytoremédiation dans les plans d'eau. Parmi les autres plantes aquatiques pouvant avoir le même emploi, citons : Vallisneria spiralis et Echinodorus cordifolius . Ces plantes constituent des modèles pour la recherche, la modélisation et l'expérimentation de diverses théories écologiques sur la succession et l'évolution des plantes, ainsi que sur le cycle des métaux et des nutriments.
@@ -609,9 +627,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante :
 « CABOMBA aquatica. (Tabula 124.)
 Planta herbacea, in aquis demerſa, caules plures, longos, lentos, ramoſus, cylindraceos, è radice emittens. Folia caulina, oppoſita, petiolata, in lacinias plures tenuiſſimas, capillaceas, oppoſitas, plurifariam diviſa. Folia terminalia alterna. Longè petiolata, peltata, integra, orbiculata, nataſitia. Flores ſolitarii, axillares, longo pedunculo ſuffulti. Corolla lutea.
 Habitat in ſtagnis &amp; rivulis Caïennæ &amp; Guianæ. »
